--- a/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4624,6 +4627,44 @@
         <v>727</v>
       </c>
     </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104">
+        <v>1442</v>
+      </c>
+      <c r="C104">
+        <v>1419</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>-1</v>
+      </c>
+      <c r="F104">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>134</v>
+      </c>
+      <c r="I104">
+        <v>25</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>102</v>
+      </c>
+      <c r="L104">
+        <v>1576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4665,6 +4668,44 @@
         <v>1576</v>
       </c>
     </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105">
+        <v>476</v>
+      </c>
+      <c r="C105">
+        <v>475</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>153</v>
+      </c>
+      <c r="I105">
+        <v>53</v>
+      </c>
+      <c r="J105">
+        <v>288</v>
+      </c>
+      <c r="K105">
+        <v>-187</v>
+      </c>
+      <c r="L105">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos no residentes, mercado local 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4706,6 +4709,44 @@
         <v>629</v>
       </c>
     </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106">
+        <v>-87</v>
+      </c>
+      <c r="C106">
+        <v>-87</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>227</v>
+      </c>
+      <c r="I106">
+        <v>33</v>
+      </c>
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>190</v>
+      </c>
+      <c r="L106">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
